--- a/public/datafiles/MH.xlsx
+++ b/public/datafiles/MH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akula\OneDrive\Desktop\SHUDHHHHH\public\datafiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jered\Desktop\backend\SHUDH\shudh.ANVI\public\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048519EA-DCF0-4E30-9EE1-DE7E406ACC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AE4225-B4CF-4DE7-8C2D-EFF0F34C110B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="678">
   <si>
     <t>type</t>
   </si>
@@ -1807,9 +1807,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>area_name</t>
-  </si>
-  <si>
     <t>longitude</t>
   </si>
   <si>
@@ -2051,6 +2048,12 @@
   </si>
   <si>
     <t>SR Nagar(6)</t>
+  </si>
+  <si>
+    <t>Area_name</t>
+  </si>
+  <si>
+    <t>Zone-4</t>
   </si>
 </sst>
 </file>
@@ -2471,26 +2474,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="93" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52:H101"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="10" max="10" width="13.58203125" customWidth="1"/>
-    <col min="11" max="11" width="13.4140625" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="20" max="20" width="13.58203125" customWidth="1"/>
-    <col min="29" max="29" width="41.33203125" customWidth="1"/>
+    <col min="7" max="8" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.5" customWidth="1"/>
     <col min="30" max="30" width="44" customWidth="1"/>
-    <col min="31" max="31" width="30.58203125" customWidth="1"/>
+    <col min="31" max="31" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2498,79 +2517,79 @@
         <v>594</v>
       </c>
       <c r="C1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G1" t="s">
         <v>595</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>596</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>597</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>598</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>599</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>600</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>601</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>605</v>
+      </c>
+      <c r="O1" t="s">
+        <v>606</v>
+      </c>
+      <c r="P1" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>608</v>
+      </c>
+      <c r="R1" t="s">
+        <v>609</v>
+      </c>
+      <c r="S1" t="s">
+        <v>610</v>
+      </c>
+      <c r="T1" t="s">
+        <v>611</v>
+      </c>
+      <c r="U1" t="s">
+        <v>612</v>
+      </c>
+      <c r="V1" t="s">
+        <v>613</v>
+      </c>
+      <c r="W1" t="s">
+        <v>614</v>
+      </c>
+      <c r="X1" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>604</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA1" t="s">
         <v>602</v>
-      </c>
-      <c r="N1" t="s">
-        <v>606</v>
-      </c>
-      <c r="O1" t="s">
-        <v>607</v>
-      </c>
-      <c r="P1" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>609</v>
-      </c>
-      <c r="R1" t="s">
-        <v>610</v>
-      </c>
-      <c r="S1" t="s">
-        <v>611</v>
-      </c>
-      <c r="T1" t="s">
-        <v>612</v>
-      </c>
-      <c r="U1" t="s">
-        <v>613</v>
-      </c>
-      <c r="V1" t="s">
-        <v>614</v>
-      </c>
-      <c r="W1" t="s">
-        <v>615</v>
-      </c>
-      <c r="X1" t="s">
-        <v>616</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>605</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>603</v>
       </c>
       <c r="AB1" t="s">
         <v>1</v>
@@ -2583,7 +2602,7 @@
       </c>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2591,16 +2610,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>620</v>
+        <v>677</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -2676,7 +2695,7 @@
       </c>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2684,16 +2703,16 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -2769,7 +2788,7 @@
       </c>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2777,16 +2796,16 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G4" t="s">
         <v>48</v>
@@ -2862,7 +2881,7 @@
       </c>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2870,16 +2889,16 @@
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G5" t="s">
         <v>64</v>
@@ -2955,7 +2974,7 @@
       </c>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2963,16 +2982,16 @@
         <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G6" t="s">
         <v>83</v>
@@ -3048,7 +3067,7 @@
       </c>
       <c r="AE6" s="3"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3056,16 +3075,16 @@
         <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G7" t="s">
         <v>100</v>
@@ -3141,7 +3160,7 @@
       </c>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3149,16 +3168,16 @@
         <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G8" t="s">
         <v>114</v>
@@ -3234,7 +3253,7 @@
       </c>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3242,16 +3261,16 @@
         <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G9" t="s">
         <v>129</v>
@@ -3327,7 +3346,7 @@
       </c>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -3335,16 +3354,16 @@
         <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G10" t="s">
         <v>142</v>
@@ -3420,7 +3439,7 @@
       </c>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3428,16 +3447,16 @@
         <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G11" t="s">
         <v>154</v>
@@ -3513,7 +3532,7 @@
       </c>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3521,16 +3540,16 @@
         <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G12" t="s">
         <v>167</v>
@@ -3606,7 +3625,7 @@
       </c>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3614,16 +3633,16 @@
         <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G13" t="s">
         <v>180</v>
@@ -3699,7 +3718,7 @@
       </c>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3707,16 +3726,16 @@
         <v>192</v>
       </c>
       <c r="C14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G14" t="s">
         <v>193</v>
@@ -3792,7 +3811,7 @@
       </c>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3800,16 +3819,16 @@
         <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G15" t="s">
         <v>207</v>
@@ -3885,7 +3904,7 @@
       </c>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3893,16 +3912,16 @@
         <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G16" t="s">
         <v>218</v>
@@ -3978,7 +3997,7 @@
       </c>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3986,16 +4005,16 @@
         <v>230</v>
       </c>
       <c r="C17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G17" t="s">
         <v>231</v>
@@ -4071,7 +4090,7 @@
       </c>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4079,16 +4098,16 @@
         <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G18" t="s">
         <v>243</v>
@@ -4164,7 +4183,7 @@
       </c>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4172,16 +4191,16 @@
         <v>255</v>
       </c>
       <c r="C19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G19" t="s">
         <v>256</v>
@@ -4257,7 +4276,7 @@
       </c>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -4265,16 +4284,16 @@
         <v>268</v>
       </c>
       <c r="C20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G20" t="s">
         <v>269</v>
@@ -4350,7 +4369,7 @@
       </c>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4358,16 +4377,16 @@
         <v>277</v>
       </c>
       <c r="C21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G21" t="s">
         <v>278</v>
@@ -4443,7 +4462,7 @@
       </c>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -4451,16 +4470,16 @@
         <v>289</v>
       </c>
       <c r="C22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G22" t="s">
         <v>290</v>
@@ -4536,7 +4555,7 @@
       </c>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -4544,16 +4563,16 @@
         <v>300</v>
       </c>
       <c r="C23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G23" t="s">
         <v>301</v>
@@ -4629,7 +4648,7 @@
       </c>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -4637,16 +4656,16 @@
         <v>311</v>
       </c>
       <c r="C24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G24" t="s">
         <v>312</v>
@@ -4722,7 +4741,7 @@
       </c>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -4730,16 +4749,16 @@
         <v>322</v>
       </c>
       <c r="C25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G25" t="s">
         <v>323</v>
@@ -4815,7 +4834,7 @@
       </c>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4823,16 +4842,16 @@
         <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G26" t="s">
         <v>334</v>
@@ -4908,7 +4927,7 @@
       </c>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -4916,16 +4935,16 @@
         <v>344</v>
       </c>
       <c r="C27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G27" t="s">
         <v>345</v>
@@ -5001,7 +5020,7 @@
       </c>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -5009,16 +5028,16 @@
         <v>355</v>
       </c>
       <c r="C28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D28" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G28" t="s">
         <v>356</v>
@@ -5094,7 +5113,7 @@
       </c>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -5102,16 +5121,16 @@
         <v>364</v>
       </c>
       <c r="C29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G29" t="s">
         <v>365</v>
@@ -5187,7 +5206,7 @@
       </c>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -5195,16 +5214,16 @@
         <v>375</v>
       </c>
       <c r="C30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G30" t="s">
         <v>376</v>
@@ -5280,7 +5299,7 @@
       </c>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -5288,16 +5307,16 @@
         <v>385</v>
       </c>
       <c r="C31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D31" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G31" t="s">
         <v>386</v>
@@ -5373,7 +5392,7 @@
       </c>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -5381,16 +5400,16 @@
         <v>396</v>
       </c>
       <c r="C32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D32" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G32" t="s">
         <v>397</v>
@@ -5466,7 +5485,7 @@
       </c>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -5474,16 +5493,16 @@
         <v>407</v>
       </c>
       <c r="C33" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G33" t="s">
         <v>408</v>
@@ -5559,7 +5578,7 @@
       </c>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -5567,16 +5586,16 @@
         <v>416</v>
       </c>
       <c r="C34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G34" t="s">
         <v>417</v>
@@ -5652,7 +5671,7 @@
       </c>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -5660,16 +5679,16 @@
         <v>426</v>
       </c>
       <c r="C35" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G35" t="s">
         <v>427</v>
@@ -5745,7 +5764,7 @@
       </c>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -5753,16 +5772,16 @@
         <v>434</v>
       </c>
       <c r="C36" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G36" t="s">
         <v>435</v>
@@ -5838,7 +5857,7 @@
       </c>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -5846,16 +5865,16 @@
         <v>445</v>
       </c>
       <c r="C37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G37" t="s">
         <v>446</v>
@@ -5931,7 +5950,7 @@
       </c>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -5939,16 +5958,16 @@
         <v>455</v>
       </c>
       <c r="C38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G38" t="s">
         <v>456</v>
@@ -6024,7 +6043,7 @@
       </c>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -6032,16 +6051,16 @@
         <v>464</v>
       </c>
       <c r="C39" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D39" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G39" t="s">
         <v>465</v>
@@ -6117,7 +6136,7 @@
       </c>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -6125,16 +6144,16 @@
         <v>474</v>
       </c>
       <c r="C40" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G40" t="s">
         <v>475</v>
@@ -6210,7 +6229,7 @@
       </c>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -6218,16 +6237,16 @@
         <v>485</v>
       </c>
       <c r="C41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D41" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G41" t="s">
         <v>486</v>
@@ -6303,7 +6322,7 @@
       </c>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -6311,16 +6330,16 @@
         <v>494</v>
       </c>
       <c r="C42" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G42" t="s">
         <v>495</v>
@@ -6396,7 +6415,7 @@
       </c>
       <c r="AE42" s="3"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -6404,16 +6423,16 @@
         <v>505</v>
       </c>
       <c r="C43" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G43" t="s">
         <v>506</v>
@@ -6489,7 +6508,7 @@
       </c>
       <c r="AE43" s="3"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -6497,16 +6516,16 @@
         <v>515</v>
       </c>
       <c r="C44" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G44" t="s">
         <v>516</v>
@@ -6582,7 +6601,7 @@
       </c>
       <c r="AE44" s="3"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -6590,16 +6609,16 @@
         <v>525</v>
       </c>
       <c r="C45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G45" t="s">
         <v>526</v>
@@ -6675,7 +6694,7 @@
       </c>
       <c r="AE45" s="3"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -6683,16 +6702,16 @@
         <v>533</v>
       </c>
       <c r="C46" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G46" t="s">
         <v>534</v>
@@ -6768,7 +6787,7 @@
       </c>
       <c r="AE46" s="3"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -6776,16 +6795,16 @@
         <v>546</v>
       </c>
       <c r="C47" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D47" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G47" t="s">
         <v>547</v>
@@ -6861,7 +6880,7 @@
       </c>
       <c r="AE47" s="3"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -6869,16 +6888,16 @@
         <v>556</v>
       </c>
       <c r="C48" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D48" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G48" t="s">
         <v>557</v>
@@ -6954,7 +6973,7 @@
       </c>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -6962,16 +6981,16 @@
         <v>566</v>
       </c>
       <c r="C49" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D49" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G49" t="s">
         <v>567</v>
@@ -7047,7 +7066,7 @@
       </c>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -7055,16 +7074,16 @@
         <v>574</v>
       </c>
       <c r="C50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D50" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G50" t="s">
         <v>575</v>
@@ -7140,7 +7159,7 @@
       </c>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -7148,16 +7167,16 @@
         <v>583</v>
       </c>
       <c r="C51" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D51" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G51" t="s">
         <v>584</v>
@@ -7232,24 +7251,24 @@
         <v>585</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D52" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E52" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G52" s="4">
         <v>78.448520000000002</v>
@@ -7325,24 +7344,24 @@
       </c>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C53" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D53" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E53" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G53" s="4">
         <v>78.444209999999998</v>
@@ -7418,24 +7437,24 @@
       </c>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C54" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D54" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E54" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G54" s="4">
         <v>78.449759999999998</v>
@@ -7510,24 +7529,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D55" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E55" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G55" s="4">
         <v>78.449190000000002</v>
@@ -7602,24 +7621,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>4</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C56" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D56" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E56" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G56" s="4">
         <v>78.450109999999995</v>
@@ -7694,24 +7713,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C57" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D57" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E57" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G57" s="4">
         <v>78.447339999999997</v>
@@ -7786,24 +7805,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C58" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D58" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E58" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G58" s="4">
         <v>78.446569999999994</v>
@@ -7878,24 +7897,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C59" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D59" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E59" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G59" s="4">
         <v>78.44605</v>
@@ -7970,24 +7989,24 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C60" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D60" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E60" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G60" s="4">
         <v>78.448830000000001</v>
@@ -8062,24 +8081,24 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>4</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C61" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D61" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E61" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G61" s="4">
         <v>78.445329999999998</v>
@@ -8154,24 +8173,24 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C62" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D62" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E62" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G62" s="4">
         <v>78.447810000000004</v>
@@ -8246,24 +8265,24 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>4</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C63" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D63" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E63" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G63" s="4">
         <v>78.450419999999994</v>
@@ -8338,24 +8357,24 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C64" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D64" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E64" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G64" s="4">
         <v>78.449950000000001</v>
@@ -8430,24 +8449,24 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C65" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D65" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E65" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G65" s="4">
         <v>78.445790000000002</v>
@@ -8522,24 +8541,24 @@
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C66" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D66" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E66" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G66" s="4">
         <v>78.446860000000001</v>
@@ -8614,24 +8633,24 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>4</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C67" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D67" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E67" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G67" s="4">
         <v>78.448239999999998</v>
@@ -8706,24 +8725,24 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C68" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D68" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E68" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G68" s="4">
         <v>78.444980000000001</v>
@@ -8798,24 +8817,24 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C69" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D69" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E69" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G69" s="4">
         <v>78.449330000000003</v>
@@ -8890,24 +8909,24 @@
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>4</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C70" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E70" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G70" s="4">
         <v>78.44717</v>
@@ -8982,24 +9001,24 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>4</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C71" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D71" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E71" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G71" s="4">
         <v>78.448459999999997</v>
@@ -9074,24 +9093,24 @@
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>4</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C72" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D72" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E72" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G72" s="4">
         <v>78.445139999999995</v>
@@ -9166,24 +9185,24 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>4</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C73" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D73" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E73" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G73" s="4">
         <v>78.449010000000001</v>
@@ -9258,24 +9277,24 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>4</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C74" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D74" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E74" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G74" s="4">
         <v>78.446489999999997</v>
@@ -9350,24 +9369,24 @@
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>4</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C75" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D75" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E75" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G75" s="4">
         <v>78.445719999999994</v>
@@ -9442,24 +9461,24 @@
         <v>324</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>4</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D76" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E76" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G76" s="4">
         <v>78.447580000000002</v>
@@ -9534,24 +9553,24 @@
         <v>335</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>4</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C77" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D77" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E77" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G77" s="4">
         <v>78.446269999999998</v>
@@ -9626,24 +9645,24 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>4</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C78" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D78" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E78" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G78" s="4">
         <v>78.448089999999993</v>
@@ -9718,24 +9737,24 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>4</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C79" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D79" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E79" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G79" s="4">
         <v>78.449550000000002</v>
@@ -9810,24 +9829,24 @@
         <v>366</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>4</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C80" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D80" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E80" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G80" s="4">
         <v>78.449640000000002</v>
@@ -9902,24 +9921,24 @@
         <v>377</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>4</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C81" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D81" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E81" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G81" s="4">
         <v>78.446920000000006</v>
@@ -9994,24 +10013,24 @@
         <v>387</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D82" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E82" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G82" s="4">
         <v>78.450230000000005</v>
@@ -10086,24 +10105,24 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>4</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C83" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D83" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E83" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G83" s="4">
         <v>78.444649999999996</v>
@@ -10178,24 +10197,24 @@
         <v>409</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>4</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C84" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D84" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E84" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G84" s="4">
         <v>78.448589999999996</v>
@@ -10270,24 +10289,24 @@
         <v>418</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>4</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C85" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D85" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E85" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G85" s="4">
         <v>78.448149999999998</v>
@@ -10362,24 +10381,24 @@
         <v>428</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>4</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C86" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D86" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E86" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G86" s="4">
         <v>78.445610000000002</v>
@@ -10454,24 +10473,24 @@
         <v>436</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>4</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C87" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D87" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E87" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G87" s="4">
         <v>78.447429999999997</v>
@@ -10546,24 +10565,24 @@
         <v>447</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>4</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C88" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D88" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E88" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G88" s="4">
         <v>78.449280000000002</v>
@@ -10638,24 +10657,24 @@
         <v>457</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C89" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D89" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E89" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G89" s="4">
         <v>78.447879999999998</v>
@@ -10730,24 +10749,24 @@
         <v>466</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>4</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C90" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D90" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E90" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G90" s="4">
         <v>78.448769999999996</v>
@@ -10822,24 +10841,24 @@
         <v>476</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>4</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C91" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D91" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E91" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G91" s="4">
         <v>78.445880000000002</v>
@@ -10914,24 +10933,24 @@
         <v>487</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>4</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C92" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D92" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E92" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G92" s="4">
         <v>78.446809999999999</v>
@@ -11006,24 +11025,24 @@
         <v>496</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>4</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C93" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D93" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E93" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G93" s="4">
         <v>78.447490000000002</v>
@@ -11098,24 +11117,24 @@
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>4</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C94" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D94" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E94" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G94" s="4">
         <v>78.450050000000005</v>
@@ -11190,24 +11209,24 @@
         <v>517</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>4</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C95" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D95" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E95" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G95" s="4">
         <v>78.447130000000001</v>
@@ -11282,24 +11301,24 @@
         <v>527</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>4</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C96" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D96" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E96" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G96" s="4">
         <v>78.44802</v>
@@ -11374,24 +11393,24 @@
         <v>535</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>4</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C97" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D97" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E97" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G97" s="4">
         <v>78.449110000000005</v>
@@ -11466,24 +11485,24 @@
         <v>548</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>4</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C98" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D98" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E98" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G98" s="4">
         <v>78.450339999999997</v>
@@ -11558,24 +11577,24 @@
         <v>346</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>4</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C99" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D99" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E99" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G99" s="4">
         <v>78.449479999999994</v>
@@ -11650,24 +11669,24 @@
         <v>568</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>4</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C100" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D100" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E100" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G100" s="4">
         <v>78.446150000000003</v>
@@ -11742,24 +11761,24 @@
         <v>576</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>4</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C101" t="s">
+        <v>623</v>
+      </c>
+      <c r="D101" t="s">
+        <v>675</v>
+      </c>
+      <c r="E101" t="s">
         <v>674</v>
       </c>
-      <c r="C101" t="s">
-        <v>624</v>
-      </c>
-      <c r="D101" t="s">
-        <v>676</v>
-      </c>
-      <c r="E101" t="s">
-        <v>675</v>
-      </c>
       <c r="F101" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G101" s="4">
         <v>78.448949999999996</v>
